--- a/compiled.xlsx
+++ b/compiled.xlsx
@@ -1301,7 +1301,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>USA</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="C20" t="n">
@@ -1511,7 +1511,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C2" t="n">
@@ -2285,7 +2285,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>USA</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="C20" t="n">
@@ -2452,7 +2452,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C2" t="n">
@@ -3226,7 +3226,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>USA</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="C20" t="n">
@@ -3393,7 +3393,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C2" t="n">
@@ -4167,7 +4167,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>USA</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="C20" t="n">
@@ -4334,7 +4334,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C2" t="n">
@@ -5108,7 +5108,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>USA</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="C20" t="n">
@@ -5275,7 +5275,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C2" t="n">
@@ -6049,7 +6049,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>USA</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="C20" t="n">
@@ -6216,7 +6216,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C2" t="n">
@@ -7033,7 +7033,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>USA</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="C21" t="n">
@@ -7200,7 +7200,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C2" t="n">
@@ -8017,7 +8017,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>USA</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="C21" t="n">
@@ -8184,7 +8184,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C2" t="n">
@@ -9168,7 +9168,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C2" t="n">
@@ -10152,7 +10152,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C2" t="n">
@@ -11136,7 +11136,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C2" t="n">
@@ -11910,7 +11910,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>USA</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="C20" t="n">
@@ -12120,7 +12120,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C2" t="n">
@@ -13104,7 +13104,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C2" t="n">
@@ -14088,7 +14088,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C2" t="n">
@@ -15072,7 +15072,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C2" t="n">
@@ -16056,7 +16056,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C2" t="n">
@@ -17040,7 +17040,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C2" t="n">
@@ -18024,7 +18024,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C2" t="n">
@@ -19008,7 +19008,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C2" t="n">
@@ -19992,7 +19992,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C2" t="n">
@@ -20766,7 +20766,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>USA</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="C20" t="n">
@@ -20976,7 +20976,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C2" t="n">
@@ -21750,7 +21750,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>USA</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="C20" t="n">
@@ -21960,7 +21960,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C2" t="n">
@@ -22734,7 +22734,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>USA</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="C20" t="n">
@@ -22944,7 +22944,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C2" t="n">
@@ -23675,7 +23675,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>USA</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="C19" t="n">
@@ -23885,7 +23885,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C2" t="n">
@@ -24616,7 +24616,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>USA</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="C19" t="n">
@@ -24826,7 +24826,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C2" t="n">
@@ -25557,7 +25557,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>USA</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="C19" t="n">
@@ -25724,7 +25724,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C2" t="n">
@@ -26068,7 +26068,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Other countries</t>
+          <t>Asia - other</t>
         </is>
       </c>
       <c r="C10" t="n">
@@ -26498,7 +26498,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>USA</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="C20" t="n">
